--- a/Data/Demand rates/DemandInputSmall3.xlsx
+++ b/Data/Demand rates/DemandInputSmall3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB168E41-C5FF-4FDC-828B-BAF388090EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F0192B-9BAC-46AF-98D4-0A12A09F4AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lambdapeak" sheetId="1" r:id="rId1"/>
@@ -337,8 +337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/Demand rates/DemandInputSmall3.xlsx
+++ b/Data/Demand rates/DemandInputSmall3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F0192B-9BAC-46AF-98D4-0A12A09F4AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32221AA9-0650-4C17-97F9-6B81AFECCD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lambdapeak" sheetId="1" r:id="rId1"/>
@@ -337,8 +337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/Demand rates/DemandInputSmall3.xlsx
+++ b/Data/Demand rates/DemandInputSmall3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32221AA9-0650-4C17-97F9-6B81AFECCD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B67E845-9ECD-4C92-BD50-D3041D3E6B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lambdapeak" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,27 @@
     <sheet name="lambdarec" sheetId="3" r:id="rId3"/>
     <sheet name="murec" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,8 +351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
